--- a/swe-iot/docs/IT0000.xlsx
+++ b/swe-iot/docs/IT0000.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshke/NetBeansProjects/swe18/swe-iot/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="1" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="1" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Stories" sheetId="2" r:id="rId2"/>
+    <sheet name="Burn down" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>I0</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Abschätzung</t>
   </si>
   <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
@@ -100,6 +98,40 @@
   </si>
   <si>
     <t>Erstellen die ein Verhalten ähnlich dem in der Klasse CountAndShowLed nur, das der x-Wert den rot-Wert, der y-Wert den grün-Wert und der z-Wert den blau-Wert  definiert. Auch hier wieder Testfall und ein kleines Demo.</t>
+  </si>
+  <si>
+    <t>Zuständig</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Team1</t>
+  </si>
+  <si>
+    <t>Zölfer&amp;Reinhart</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Werschitz
+Ulz</t>
+  </si>
+  <si>
+    <t>Team3</t>
+  </si>
+  <si>
+    <t>Ropulust</t>
+  </si>
+  <si>
+    <t>Strauß</t>
+  </si>
+  <si>
+    <t>Verbleibend</t>
   </si>
 </sst>
 </file>
@@ -135,8 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -457,9 +492,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -475,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -491,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -499,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -514,129 +549,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A4985-14C0-423B-90AA-D94BB584CD49}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F5D13-BDF0-E942-832F-0B377A876206}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/swe-iot/docs/IT0000.xlsx
+++ b/swe-iot/docs/IT0000.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshke/NetBeansProjects/swe18/swe-iot/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\git\swe18\swe-iot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="1" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="2" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>I0</t>
   </si>
@@ -132,19 +132,66 @@
   </si>
   <si>
     <t>Verbleibend</t>
+  </si>
+  <si>
+    <t>StoryName</t>
+  </si>
+  <si>
+    <t>PlayDemoApp</t>
+  </si>
+  <si>
+    <t>LedDemoApp</t>
+  </si>
+  <si>
+    <t>ButtonsCounter</t>
+  </si>
+  <si>
+    <t>CountandShowLed</t>
+  </si>
+  <si>
+    <t>CountandSound</t>
+  </si>
+  <si>
+    <t>RedLed</t>
+  </si>
+  <si>
+    <t>GetAcceleration</t>
+  </si>
+  <si>
+    <t>RedAcceleration</t>
+  </si>
+  <si>
+    <t>XandYAcceleration</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Soll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,10 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,6 +237,987 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBA4-40D4-98B1-A1220BFC0000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBA4-40D4-98B1-A1220BFC0000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="492112368"/>
+        <c:axId val="392230176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="492112368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392230176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392230176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492112368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F65EB84-21ED-49BA-8531-093D4FB86D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,12 +1520,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -510,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -518,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -526,7 +1557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -534,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -549,18 +1580,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A4985-14C0-423B-90AA-D94BB584CD49}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -580,10 +1612,13 @@
         <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,11 +1634,17 @@
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -619,11 +1660,17 @@
       <c r="E3">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -639,28 +1686,43 @@
       <c r="E4">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
       <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
         <v>13</v>
       </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
       <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -673,11 +1735,17 @@
       <c r="E6">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -690,11 +1758,17 @@
       <c r="E7">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -707,11 +1781,17 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -724,11 +1804,17 @@
       <c r="E9">
         <v>5</v>
       </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -741,11 +1827,17 @@
       <c r="E10">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -753,7 +1845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="29">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -761,7 +1853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -769,7 +1861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -782,12 +1874,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F5D13-BDF0-E942-832F-0B377A876206}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/swe-iot/docs/IT0000.xlsx
+++ b/swe-iot/docs/IT0000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\git\swe18\swe-iot\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>I0</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>Soll</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
   </si>
 </sst>
 </file>
@@ -410,7 +428,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,16 +1201,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1583,7 +1601,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E12:E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1661,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1874,56 +1892,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F5D13-BDF0-E942-832F-0B377A876206}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>65</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>52</v>
       </c>
       <c r="B3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/swe-iot/docs/IT0000.xlsx
+++ b/swe-iot/docs/IT0000.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="2" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="1" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>I0</t>
   </si>
@@ -429,6 +429,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A4985-14C0-423B-90AA-D94BB584CD49}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1679,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1705,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -1731,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>39</v>
@@ -1747,6 +1750,9 @@
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
       <c r="D6">
         <v>5</v>
       </c>
@@ -1770,6 +1776,9 @@
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7">
         <v>6</v>
       </c>
@@ -1793,6 +1802,9 @@
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8">
         <v>7</v>
       </c>
@@ -1816,6 +1828,9 @@
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9">
         <v>8</v>
       </c>
@@ -1838,6 +1853,9 @@
       </c>
       <c r="B10">
         <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1894,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F5D13-BDF0-E942-832F-0B377A876206}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1943,6 +1961,9 @@
       <c r="A4">
         <v>34</v>
       </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>

--- a/swe-iot/docs/IT0000.xlsx
+++ b/swe-iot/docs/IT0000.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="1" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="2" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>I0</t>
   </si>
@@ -433,6 +433,9 @@
                 <c:pt idx="2">
                   <c:v>34</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -462,6 +465,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1205,15 +1209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1541,7 +1545,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1603,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A4985-14C0-423B-90AA-D94BB584CD49}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1786,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -1827,9 +1831,6 @@
       </c>
       <c r="B9">
         <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1912,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F5D13-BDF0-E942-832F-0B377A876206}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1975,6 +1976,9 @@
       <c r="A5">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>

--- a/swe-iot/docs/IT0000.xlsx
+++ b/swe-iot/docs/IT0000.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" activeTab="2" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="15920" xr2:uid="{89FE9A19-B208-4B16-90DB-A53386591A51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Releaseplanung" sheetId="1" r:id="rId1"/>
     <sheet name="Stories" sheetId="2" r:id="rId2"/>
     <sheet name="Burn down" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>I0</t>
   </si>
@@ -109,28 +109,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Team1</t>
-  </si>
-  <si>
     <t>Zölfer&amp;Reinhart</t>
   </si>
   <si>
-    <t>Team2</t>
-  </si>
-  <si>
-    <t>Werschitz
-Ulz</t>
-  </si>
-  <si>
-    <t>Team3</t>
-  </si>
-  <si>
-    <t>Ropulust</t>
-  </si>
-  <si>
-    <t>Strauß</t>
-  </si>
-  <si>
     <t>Verbleibend</t>
   </si>
   <si>
@@ -192,6 +173,42 @@
   </si>
   <si>
     <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>Firmware</t>
+  </si>
+  <si>
+    <t>Ermöglichen Sie es, dass mehrerer Leds auf einmal gesetzt werden können.  Dazu muss eine neue Methode in der Firmware umgesetzt werden und es sollen die entsprechenden HighLevel API Methode angeboten werden. Wieder Testfälle und Demo.</t>
+  </si>
+  <si>
+    <t>Scrum Master:</t>
+  </si>
+  <si>
+    <t>EW1</t>
+  </si>
+  <si>
+    <t>EW2</t>
+  </si>
+  <si>
+    <t>EW3</t>
+  </si>
+  <si>
+    <t>Duller</t>
+  </si>
+  <si>
+    <t>Werschitz &amp; Ulz</t>
+  </si>
+  <si>
+    <t>Ropulust &amp; Strauß</t>
+  </si>
+  <si>
+    <t>EW1:</t>
+  </si>
+  <si>
+    <t>EW2:</t>
+  </si>
+  <si>
+    <t>EW3:</t>
   </si>
 </sst>
 </file>
@@ -435,6 +452,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF1391-EAAE-4527-BFE6-FA8E85D49ACD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1605,16 +1628,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A4985-14C0-423B-90AA-D94BB584CD49}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="8" max="8" width="68.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1634,16 +1660,16 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1651,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1660,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="43.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1677,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1686,16 +1712,16 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="43.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1703,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1712,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="72.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1729,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1738,16 +1764,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="72.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1755,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1764,16 +1790,16 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="29">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1781,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1790,16 +1816,16 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="58">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1807,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1816,22 +1842,25 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="43.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
       <c r="D9">
         <v>8</v>
       </c>
@@ -1839,16 +1868,16 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="43.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1856,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1865,42 +1894,71 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="11" spans="1:8" ht="58">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>33</v>
+    </row>
+    <row r="15" spans="1:8" ht="29">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1913,18 +1971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F5D13-BDF0-E942-832F-0B377A876206}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -1938,7 +1996,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1952,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1966,7 +2024,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1980,7 +2038,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1990,8 +2048,11 @@
       <c r="A6">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2001,8 +2062,11 @@
       <c r="A7">
         <v>0</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>6</v>
